--- a/public/t001/annotated_transcript.xlsx
+++ b/public/t001/annotated_transcript.xlsx
@@ -1161,7 +1161,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1186,9 +1186,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1207,15 +1235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,45 +1250,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,29 +1267,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1328,8 +1303,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,139 +1358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,25 +1376,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,8 +1458,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1549,6 +1563,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,17 +1630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1599,6 +1641,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,188 +1679,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1809,7 +1838,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2189,7 +2224,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7568,8 +7603,8 @@
   <sheetPr/>
   <dimension ref="A1:R319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -7631,7 +7666,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -7642,7 +7677,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -7653,7 +7688,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -7664,7 +7699,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -7675,7 +7710,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -7686,7 +7721,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -7697,7 +7732,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -7708,7 +7743,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -7719,7 +7754,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -7730,7 +7765,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -7741,7 +7776,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -7752,7 +7787,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -7763,7 +7798,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -7774,7 +7809,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -7785,7 +7820,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -7796,7 +7831,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -7807,7 +7842,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -7818,7 +7853,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -7829,7 +7864,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -7840,7 +7875,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -7851,7 +7886,7 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -7907,7 +7942,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -7918,7 +7953,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -7929,7 +7964,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -7940,7 +7975,7 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -7996,7 +8031,7 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -8052,7 +8087,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -8063,7 +8098,7 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -8119,7 +8154,7 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -8175,7 +8210,7 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -8231,7 +8266,7 @@
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -8287,7 +8322,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -8298,7 +8333,7 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -8354,7 +8389,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -8365,7 +8400,7 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -8421,7 +8456,7 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -8477,7 +8512,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -8488,7 +8523,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -8499,7 +8534,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -8510,7 +8545,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -8521,7 +8556,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -8532,7 +8567,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -8543,7 +8578,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -8554,7 +8589,7 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -8610,7 +8645,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -8621,7 +8656,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -8632,7 +8667,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -8643,7 +8678,7 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -8699,7 +8734,7 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -8755,7 +8790,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -8766,7 +8801,7 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -8822,7 +8857,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -8833,7 +8868,7 @@
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -8889,7 +8924,7 @@
       </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -8945,7 +8980,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -8956,7 +8991,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -8967,7 +9002,7 @@
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -9023,7 +9058,7 @@
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -9079,7 +9114,7 @@
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -9135,7 +9170,7 @@
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -9191,7 +9226,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -9202,7 +9237,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -9213,7 +9248,7 @@
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -9269,7 +9304,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -9280,7 +9315,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -9291,7 +9326,7 @@
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -9347,7 +9382,7 @@
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -9403,7 +9438,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -9414,7 +9449,7 @@
       </c>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -9470,7 +9505,7 @@
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -9526,7 +9561,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -9537,7 +9572,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -9548,7 +9583,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -9559,7 +9594,7 @@
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -9615,7 +9650,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -9626,7 +9661,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -9637,7 +9672,7 @@
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -9693,7 +9728,7 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -9749,7 +9784,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -9760,7 +9795,7 @@
       </c>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -9816,7 +9851,7 @@
       </c>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -9872,7 +9907,7 @@
       </c>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -9928,7 +9963,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -9939,7 +9974,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -9950,7 +9985,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -9961,7 +9996,7 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -10017,7 +10052,7 @@
       </c>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -10073,7 +10108,7 @@
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -10129,7 +10164,7 @@
       </c>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -10185,7 +10220,7 @@
       </c>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -10241,7 +10276,7 @@
       </c>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -10297,7 +10332,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -10308,7 +10343,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -10319,7 +10354,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -10330,7 +10365,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -10341,7 +10376,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -10352,7 +10387,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -10363,7 +10398,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -10374,7 +10409,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -10385,7 +10420,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -10396,7 +10431,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -10407,7 +10442,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -10418,7 +10453,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -10429,7 +10464,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -10440,7 +10475,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -10451,7 +10486,7 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -10462,7 +10497,7 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -10473,7 +10508,7 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -10484,7 +10519,7 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -10495,7 +10530,7 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -10506,7 +10541,7 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -10517,7 +10552,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -10528,7 +10563,7 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -10539,7 +10574,7 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -10550,7 +10585,7 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -10561,7 +10596,7 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -10572,7 +10607,7 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -10583,7 +10618,7 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -10594,7 +10629,7 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -10605,7 +10640,7 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -10616,7 +10651,7 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -10627,7 +10662,7 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -10638,7 +10673,7 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -10649,7 +10684,7 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125">
+      <c r="A125" s="4">
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -10660,7 +10695,7 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -10671,7 +10706,7 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127">
+      <c r="A127" s="4">
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -10682,7 +10717,7 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -10693,7 +10728,7 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129">
+      <c r="A129" s="4">
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -10704,7 +10739,7 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -10715,7 +10750,7 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131">
+      <c r="A131" s="4">
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -10726,7 +10761,7 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -10737,7 +10772,7 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133">
+      <c r="A133" s="4">
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -10748,7 +10783,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -10759,7 +10794,7 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135">
+      <c r="A135" s="4">
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -10770,7 +10805,7 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -10781,8 +10816,8 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137">
-        <v>136</v>
+      <c r="A137" s="4">
+        <v>1</v>
       </c>
       <c r="B137" t="s">
         <v>9</v>
@@ -10792,8 +10827,8 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138">
-        <v>137</v>
+      <c r="A138" s="5">
+        <v>2</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -10803,8 +10838,8 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139">
-        <v>138</v>
+      <c r="A139" s="5">
+        <v>3</v>
       </c>
       <c r="B139" t="s">
         <v>18</v>
@@ -10814,8 +10849,8 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140">
-        <v>139</v>
+      <c r="A140" s="5">
+        <v>4</v>
       </c>
       <c r="B140" t="s">
         <v>9</v>
@@ -10825,8 +10860,8 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141">
-        <v>140</v>
+      <c r="A141" s="4">
+        <v>5</v>
       </c>
       <c r="B141" t="s">
         <v>13</v>
@@ -10836,8 +10871,8 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142">
-        <v>141</v>
+      <c r="A142" s="5">
+        <v>6</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -10847,8 +10882,8 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143">
-        <v>142</v>
+      <c r="A143" s="5">
+        <v>7</v>
       </c>
       <c r="B143" t="s">
         <v>13</v>
@@ -10858,8 +10893,8 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144">
-        <v>143</v>
+      <c r="A144" s="5">
+        <v>8</v>
       </c>
       <c r="B144" t="s">
         <v>9</v>
@@ -10869,8 +10904,8 @@
       </c>
     </row>
     <row r="145" spans="1:18">
-      <c r="A145">
-        <v>144</v>
+      <c r="A145" s="4">
+        <v>9</v>
       </c>
       <c r="B145" t="s">
         <v>13</v>
@@ -10925,8 +10960,8 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146">
-        <v>145</v>
+      <c r="A146" s="5">
+        <v>10</v>
       </c>
       <c r="B146" t="s">
         <v>18</v>
@@ -10936,8 +10971,8 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147">
-        <v>146</v>
+      <c r="A147" s="5">
+        <v>11</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
@@ -10947,8 +10982,8 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148">
-        <v>147</v>
+      <c r="A148" s="5">
+        <v>12</v>
       </c>
       <c r="B148" t="s">
         <v>18</v>
@@ -10958,8 +10993,8 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149">
-        <v>148</v>
+      <c r="A149" s="4">
+        <v>13</v>
       </c>
       <c r="B149" t="s">
         <v>13</v>
@@ -10969,8 +11004,8 @@
       </c>
     </row>
     <row r="150" spans="1:18">
-      <c r="A150">
-        <v>149</v>
+      <c r="A150" s="5">
+        <v>14</v>
       </c>
       <c r="B150" t="s">
         <v>18</v>
@@ -11025,8 +11060,8 @@
       </c>
     </row>
     <row r="151" spans="1:18">
-      <c r="A151">
-        <v>150</v>
+      <c r="A151" s="5">
+        <v>15</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
@@ -11081,8 +11116,8 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152">
-        <v>151</v>
+      <c r="A152" s="5">
+        <v>16</v>
       </c>
       <c r="B152" t="s">
         <v>18</v>
@@ -11092,8 +11127,8 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153">
-        <v>152</v>
+      <c r="A153" s="4">
+        <v>17</v>
       </c>
       <c r="B153" t="s">
         <v>13</v>
@@ -11103,8 +11138,8 @@
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154">
-        <v>153</v>
+      <c r="A154" s="5">
+        <v>18</v>
       </c>
       <c r="B154" t="s">
         <v>18</v>
@@ -11114,8 +11149,8 @@
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155">
-        <v>154</v>
+      <c r="A155" s="5">
+        <v>19</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -11125,8 +11160,8 @@
       </c>
     </row>
     <row r="156" spans="1:18">
-      <c r="A156">
-        <v>155</v>
+      <c r="A156" s="5">
+        <v>20</v>
       </c>
       <c r="B156" t="s">
         <v>18</v>
@@ -11181,8 +11216,8 @@
       </c>
     </row>
     <row r="157" spans="1:18">
-      <c r="A157">
-        <v>156</v>
+      <c r="A157" s="4">
+        <v>21</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -11237,8 +11272,8 @@
       </c>
     </row>
     <row r="158" spans="1:18">
-      <c r="A158">
-        <v>157</v>
+      <c r="A158" s="5">
+        <v>22</v>
       </c>
       <c r="B158" t="s">
         <v>18</v>
@@ -11293,8 +11328,8 @@
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159">
-        <v>158</v>
+      <c r="A159" s="5">
+        <v>23</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
@@ -11304,8 +11339,8 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160">
-        <v>159</v>
+      <c r="A160" s="5">
+        <v>24</v>
       </c>
       <c r="B160" t="s">
         <v>18</v>
@@ -11315,8 +11350,8 @@
       </c>
     </row>
     <row r="161" spans="1:18">
-      <c r="A161">
-        <v>160</v>
+      <c r="A161" s="4">
+        <v>25</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
@@ -11371,8 +11406,8 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162">
-        <v>161</v>
+      <c r="A162" s="5">
+        <v>26</v>
       </c>
       <c r="B162" t="s">
         <v>13</v>
@@ -11382,8 +11417,8 @@
       </c>
     </row>
     <row r="163" spans="1:18">
-      <c r="A163">
-        <v>162</v>
+      <c r="A163" s="5">
+        <v>27</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -11438,8 +11473,8 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164">
-        <v>163</v>
+      <c r="A164" s="5">
+        <v>28</v>
       </c>
       <c r="B164" t="s">
         <v>13</v>
@@ -11449,8 +11484,8 @@
       </c>
     </row>
     <row r="165" spans="1:18">
-      <c r="A165">
-        <v>164</v>
+      <c r="A165" s="4">
+        <v>29</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -11505,8 +11540,8 @@
       </c>
     </row>
     <row r="166" spans="1:18">
-      <c r="A166">
-        <v>165</v>
+      <c r="A166" s="5">
+        <v>30</v>
       </c>
       <c r="B166" t="s">
         <v>13</v>
@@ -11561,8 +11596,8 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167">
-        <v>166</v>
+      <c r="A167" s="5">
+        <v>31</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -11572,8 +11607,8 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168">
-        <v>167</v>
+      <c r="A168" s="5">
+        <v>32</v>
       </c>
       <c r="B168" t="s">
         <v>13</v>
@@ -11583,8 +11618,8 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169">
-        <v>168</v>
+      <c r="A169" s="4">
+        <v>33</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -11594,8 +11629,8 @@
       </c>
     </row>
     <row r="170" spans="1:18">
-      <c r="A170">
-        <v>169</v>
+      <c r="A170" s="5">
+        <v>34</v>
       </c>
       <c r="B170" t="s">
         <v>13</v>
@@ -11650,8 +11685,8 @@
       </c>
     </row>
     <row r="171" spans="1:18">
-      <c r="A171">
-        <v>170</v>
+      <c r="A171" s="5">
+        <v>35</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -11706,8 +11741,8 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172">
-        <v>171</v>
+      <c r="A172" s="5">
+        <v>36</v>
       </c>
       <c r="B172" t="s">
         <v>9</v>
@@ -11717,8 +11752,8 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173">
-        <v>172</v>
+      <c r="A173" s="4">
+        <v>37</v>
       </c>
       <c r="B173" t="s">
         <v>13</v>
@@ -11728,8 +11763,8 @@
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174">
-        <v>173</v>
+      <c r="A174" s="5">
+        <v>38</v>
       </c>
       <c r="B174" t="s">
         <v>9</v>
@@ -11739,8 +11774,8 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175">
-        <v>174</v>
+      <c r="A175" s="5">
+        <v>39</v>
       </c>
       <c r="B175" t="s">
         <v>9</v>
@@ -11750,8 +11785,8 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176">
-        <v>175</v>
+      <c r="A176" s="5">
+        <v>40</v>
       </c>
       <c r="B176" t="s">
         <v>13</v>
@@ -11761,8 +11796,8 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177">
-        <v>176</v>
+      <c r="A177" s="4">
+        <v>41</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -11772,8 +11807,8 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178">
-        <v>177</v>
+      <c r="A178" s="5">
+        <v>42</v>
       </c>
       <c r="B178" t="s">
         <v>13</v>
@@ -11783,8 +11818,8 @@
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179">
-        <v>178</v>
+      <c r="A179" s="5">
+        <v>43</v>
       </c>
       <c r="B179" t="s">
         <v>18</v>
@@ -11794,8 +11829,8 @@
       </c>
     </row>
     <row r="180" spans="1:18">
-      <c r="A180">
-        <v>179</v>
+      <c r="A180" s="5">
+        <v>44</v>
       </c>
       <c r="B180" t="s">
         <v>13</v>
@@ -11850,8 +11885,8 @@
       </c>
     </row>
     <row r="181" spans="1:18">
-      <c r="A181">
-        <v>180</v>
+      <c r="A181" s="4">
+        <v>45</v>
       </c>
       <c r="B181" t="s">
         <v>18</v>
@@ -11906,8 +11941,8 @@
       </c>
     </row>
     <row r="182" spans="1:18">
-      <c r="A182">
-        <v>181</v>
+      <c r="A182" s="5">
+        <v>46</v>
       </c>
       <c r="B182" t="s">
         <v>13</v>
@@ -11962,8 +11997,8 @@
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183">
-        <v>182</v>
+      <c r="A183" s="5">
+        <v>47</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -11973,8 +12008,8 @@
       </c>
     </row>
     <row r="184" spans="1:18">
-      <c r="A184">
-        <v>183</v>
+      <c r="A184" s="5">
+        <v>48</v>
       </c>
       <c r="B184" t="s">
         <v>13</v>
@@ -12029,8 +12064,8 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185">
-        <v>184</v>
+      <c r="A185" s="4">
+        <v>49</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
@@ -12040,8 +12075,8 @@
       </c>
     </row>
     <row r="186" spans="1:18">
-      <c r="A186">
-        <v>185</v>
+      <c r="A186" s="5">
+        <v>50</v>
       </c>
       <c r="B186" t="s">
         <v>18</v>
@@ -12096,8 +12131,8 @@
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187">
-        <v>186</v>
+      <c r="A187" s="5">
+        <v>51</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -12107,8 +12142,8 @@
       </c>
     </row>
     <row r="188" spans="1:18">
-      <c r="A188">
-        <v>187</v>
+      <c r="A188" s="5">
+        <v>52</v>
       </c>
       <c r="B188" t="s">
         <v>13</v>
@@ -12163,8 +12198,8 @@
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189">
-        <v>188</v>
+      <c r="A189" s="4">
+        <v>53</v>
       </c>
       <c r="B189" t="s">
         <v>18</v>
@@ -12174,8 +12209,8 @@
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190">
-        <v>189</v>
+      <c r="A190" s="5">
+        <v>54</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -12185,8 +12220,8 @@
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191">
-        <v>190</v>
+      <c r="A191" s="5">
+        <v>55</v>
       </c>
       <c r="B191" t="s">
         <v>18</v>
@@ -12196,8 +12231,8 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192">
-        <v>191</v>
+      <c r="A192" s="5">
+        <v>56</v>
       </c>
       <c r="B192" t="s">
         <v>13</v>
@@ -12207,8 +12242,8 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193">
-        <v>192</v>
+      <c r="A193" s="4">
+        <v>57</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
@@ -12218,8 +12253,8 @@
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194">
-        <v>193</v>
+      <c r="A194" s="5">
+        <v>58</v>
       </c>
       <c r="B194" t="s">
         <v>13</v>
@@ -12229,8 +12264,8 @@
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195">
-        <v>194</v>
+      <c r="A195" s="5">
+        <v>59</v>
       </c>
       <c r="B195" t="s">
         <v>9</v>
@@ -12240,8 +12275,8 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196">
-        <v>195</v>
+      <c r="A196" s="5">
+        <v>60</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
@@ -12251,8 +12286,8 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197">
-        <v>196</v>
+      <c r="A197" s="4">
+        <v>61</v>
       </c>
       <c r="B197" t="s">
         <v>13</v>
@@ -12262,8 +12297,8 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198">
-        <v>197</v>
+      <c r="A198" s="5">
+        <v>62</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
@@ -12273,8 +12308,8 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199">
-        <v>198</v>
+      <c r="A199" s="5">
+        <v>63</v>
       </c>
       <c r="B199" t="s">
         <v>13</v>
@@ -12284,8 +12319,8 @@
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200">
-        <v>199</v>
+      <c r="A200" s="5">
+        <v>64</v>
       </c>
       <c r="B200" t="s">
         <v>9</v>
@@ -12295,8 +12330,8 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201">
-        <v>200</v>
+      <c r="A201" s="4">
+        <v>65</v>
       </c>
       <c r="B201" t="s">
         <v>13</v>
@@ -12306,8 +12341,8 @@
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202">
-        <v>201</v>
+      <c r="A202" s="5">
+        <v>66</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
@@ -12317,8 +12352,8 @@
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203">
-        <v>202</v>
+      <c r="A203" s="5">
+        <v>67</v>
       </c>
       <c r="B203" t="s">
         <v>18</v>
@@ -12328,8 +12363,8 @@
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204">
-        <v>203</v>
+      <c r="A204" s="5">
+        <v>68</v>
       </c>
       <c r="B204" t="s">
         <v>9</v>
@@ -12339,8 +12374,8 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205">
-        <v>204</v>
+      <c r="A205" s="4">
+        <v>69</v>
       </c>
       <c r="B205" t="s">
         <v>11</v>
@@ -12350,8 +12385,8 @@
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206">
-        <v>205</v>
+      <c r="A206" s="5">
+        <v>70</v>
       </c>
       <c r="B206" t="s">
         <v>18</v>
@@ -12361,8 +12396,8 @@
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207">
-        <v>206</v>
+      <c r="A207" s="4">
+        <v>1</v>
       </c>
       <c r="B207" t="s">
         <v>9</v>
@@ -12372,8 +12407,8 @@
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208">
-        <v>207</v>
+      <c r="A208" s="5">
+        <v>2</v>
       </c>
       <c r="B208" t="s">
         <v>13</v>
@@ -12383,8 +12418,8 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209">
-        <v>208</v>
+      <c r="A209" s="5">
+        <v>3</v>
       </c>
       <c r="B209" t="s">
         <v>9</v>
@@ -12394,8 +12429,8 @@
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210">
-        <v>209</v>
+      <c r="A210" s="4">
+        <v>4</v>
       </c>
       <c r="B210" t="s">
         <v>13</v>
@@ -12405,8 +12440,8 @@
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211">
-        <v>210</v>
+      <c r="A211" s="5">
+        <v>5</v>
       </c>
       <c r="B211" t="s">
         <v>9</v>
@@ -12416,8 +12451,8 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212">
-        <v>211</v>
+      <c r="A212" s="5">
+        <v>6</v>
       </c>
       <c r="B212" t="s">
         <v>18</v>
@@ -12427,8 +12462,8 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213">
-        <v>212</v>
+      <c r="A213" s="4">
+        <v>7</v>
       </c>
       <c r="B213" t="s">
         <v>9</v>
@@ -12438,8 +12473,8 @@
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214">
-        <v>213</v>
+      <c r="A214" s="5">
+        <v>8</v>
       </c>
       <c r="B214" t="s">
         <v>18</v>
@@ -12449,8 +12484,8 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215">
-        <v>214</v>
+      <c r="A215" s="5">
+        <v>9</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
@@ -12460,8 +12495,8 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216">
-        <v>215</v>
+      <c r="A216" s="4">
+        <v>10</v>
       </c>
       <c r="B216" t="s">
         <v>18</v>
@@ -12471,8 +12506,8 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217">
-        <v>216</v>
+      <c r="A217" s="5">
+        <v>11</v>
       </c>
       <c r="B217" t="s">
         <v>13</v>
@@ -12482,8 +12517,8 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218">
-        <v>217</v>
+      <c r="A218" s="5">
+        <v>12</v>
       </c>
       <c r="B218" t="s">
         <v>13</v>
@@ -12493,8 +12528,8 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219">
-        <v>218</v>
+      <c r="A219" s="4">
+        <v>13</v>
       </c>
       <c r="B219" t="s">
         <v>13</v>
@@ -12504,8 +12539,8 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220">
-        <v>219</v>
+      <c r="A220" s="5">
+        <v>14</v>
       </c>
       <c r="B220" t="s">
         <v>9</v>
@@ -12515,8 +12550,8 @@
       </c>
     </row>
     <row r="221" spans="1:18">
-      <c r="A221">
-        <v>220</v>
+      <c r="A221" s="5">
+        <v>15</v>
       </c>
       <c r="B221" t="s">
         <v>18</v>
@@ -12571,8 +12606,8 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222">
-        <v>221</v>
+      <c r="A222" s="4">
+        <v>16</v>
       </c>
       <c r="B222" t="s">
         <v>13</v>
@@ -12582,8 +12617,8 @@
       </c>
     </row>
     <row r="223" spans="1:18">
-      <c r="A223">
-        <v>222</v>
+      <c r="A223" s="5">
+        <v>17</v>
       </c>
       <c r="B223" t="s">
         <v>18</v>
@@ -12638,8 +12673,8 @@
       </c>
     </row>
     <row r="224" spans="1:18">
-      <c r="A224">
-        <v>223</v>
+      <c r="A224" s="5">
+        <v>18</v>
       </c>
       <c r="B224" t="s">
         <v>13</v>
@@ -12694,8 +12729,8 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225">
-        <v>224</v>
+      <c r="A225" s="4">
+        <v>19</v>
       </c>
       <c r="B225" t="s">
         <v>18</v>
@@ -12705,8 +12740,8 @@
       </c>
     </row>
     <row r="226" spans="1:18">
-      <c r="A226">
-        <v>225</v>
+      <c r="A226" s="5">
+        <v>20</v>
       </c>
       <c r="B226" t="s">
         <v>13</v>
@@ -12761,8 +12796,8 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227">
-        <v>226</v>
+      <c r="A227" s="5">
+        <v>21</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
@@ -12772,8 +12807,8 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228">
-        <v>227</v>
+      <c r="A228" s="4">
+        <v>22</v>
       </c>
       <c r="B228" t="s">
         <v>13</v>
@@ -12783,8 +12818,8 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229">
-        <v>228</v>
+      <c r="A229" s="5">
+        <v>23</v>
       </c>
       <c r="B229" t="s">
         <v>18</v>
@@ -12794,8 +12829,8 @@
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230">
-        <v>229</v>
+      <c r="A230" s="5">
+        <v>24</v>
       </c>
       <c r="B230" t="s">
         <v>13</v>
@@ -12805,8 +12840,8 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231">
-        <v>230</v>
+      <c r="A231" s="4">
+        <v>25</v>
       </c>
       <c r="B231" t="s">
         <v>18</v>
@@ -12816,8 +12851,8 @@
       </c>
     </row>
     <row r="232" spans="1:18">
-      <c r="A232">
-        <v>231</v>
+      <c r="A232" s="5">
+        <v>26</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
@@ -12872,8 +12907,8 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233">
-        <v>232</v>
+      <c r="A233" s="5">
+        <v>27</v>
       </c>
       <c r="B233" t="s">
         <v>13</v>
@@ -12883,8 +12918,8 @@
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234">
-        <v>233</v>
+      <c r="A234" s="4">
+        <v>28</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
@@ -12894,8 +12929,8 @@
       </c>
     </row>
     <row r="235" spans="1:18">
-      <c r="A235">
-        <v>234</v>
+      <c r="A235" s="5">
+        <v>29</v>
       </c>
       <c r="B235" t="s">
         <v>18</v>
@@ -12950,8 +12985,8 @@
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236">
-        <v>235</v>
+      <c r="A236" s="5">
+        <v>30</v>
       </c>
       <c r="B236" t="s">
         <v>13</v>
@@ -12961,8 +12996,8 @@
       </c>
     </row>
     <row r="237" spans="1:18">
-      <c r="A237">
-        <v>236</v>
+      <c r="A237" s="4">
+        <v>31</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
@@ -13017,8 +13052,8 @@
       </c>
     </row>
     <row r="238" spans="1:18">
-      <c r="A238">
-        <v>237</v>
+      <c r="A238" s="5">
+        <v>32</v>
       </c>
       <c r="B238" t="s">
         <v>13</v>
@@ -13073,8 +13108,8 @@
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239">
-        <v>238</v>
+      <c r="A239" s="5">
+        <v>33</v>
       </c>
       <c r="B239" t="s">
         <v>11</v>
@@ -13084,8 +13119,8 @@
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240">
-        <v>239</v>
+      <c r="A240" s="4">
+        <v>34</v>
       </c>
       <c r="B240" t="s">
         <v>13</v>
@@ -13095,8 +13130,8 @@
       </c>
     </row>
     <row r="241" spans="1:18">
-      <c r="A241">
-        <v>240</v>
+      <c r="A241" s="5">
+        <v>35</v>
       </c>
       <c r="B241" t="s">
         <v>11</v>
@@ -13151,8 +13186,8 @@
       </c>
     </row>
     <row r="242" spans="1:18">
-      <c r="A242">
-        <v>241</v>
+      <c r="A242" s="5">
+        <v>36</v>
       </c>
       <c r="B242" t="s">
         <v>13</v>
@@ -13207,8 +13242,8 @@
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243">
-        <v>242</v>
+      <c r="A243" s="4">
+        <v>37</v>
       </c>
       <c r="B243" t="s">
         <v>18</v>
@@ -13218,8 +13253,8 @@
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244">
-        <v>243</v>
+      <c r="A244" s="5">
+        <v>38</v>
       </c>
       <c r="B244" t="s">
         <v>13</v>
@@ -13229,8 +13264,8 @@
       </c>
     </row>
     <row r="245" spans="1:18">
-      <c r="A245">
-        <v>244</v>
+      <c r="A245" s="5">
+        <v>39</v>
       </c>
       <c r="B245" t="s">
         <v>18</v>
@@ -13285,8 +13320,8 @@
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246">
-        <v>245</v>
+      <c r="A246" s="4">
+        <v>40</v>
       </c>
       <c r="B246" t="s">
         <v>13</v>
@@ -13296,8 +13331,8 @@
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247">
-        <v>246</v>
+      <c r="A247" s="5">
+        <v>41</v>
       </c>
       <c r="B247" t="s">
         <v>18</v>
@@ -13307,8 +13342,8 @@
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248">
-        <v>247</v>
+      <c r="A248" s="5">
+        <v>42</v>
       </c>
       <c r="B248" t="s">
         <v>13</v>
@@ -13318,8 +13353,8 @@
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249">
-        <v>248</v>
+      <c r="A249" s="4">
+        <v>43</v>
       </c>
       <c r="B249" t="s">
         <v>11</v>
@@ -13329,8 +13364,8 @@
       </c>
     </row>
     <row r="250" spans="1:18">
-      <c r="A250">
-        <v>249</v>
+      <c r="A250" s="5">
+        <v>44</v>
       </c>
       <c r="B250" t="s">
         <v>18</v>
@@ -13385,8 +13420,8 @@
       </c>
     </row>
     <row r="251" spans="1:18">
-      <c r="A251">
-        <v>250</v>
+      <c r="A251" s="5">
+        <v>45</v>
       </c>
       <c r="B251" t="s">
         <v>13</v>
@@ -13441,8 +13476,8 @@
       </c>
     </row>
     <row r="252" spans="1:18">
-      <c r="A252">
-        <v>251</v>
+      <c r="A252" s="4">
+        <v>46</v>
       </c>
       <c r="B252" t="s">
         <v>18</v>
@@ -13497,16 +13532,16 @@
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253">
-        <v>252</v>
+      <c r="A253" s="5">
+        <v>47</v>
       </c>
       <c r="C253" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254">
-        <v>253</v>
+      <c r="A254" s="5">
+        <v>48</v>
       </c>
       <c r="B254" t="s">
         <v>13</v>
@@ -13516,16 +13551,16 @@
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255">
-        <v>254</v>
+      <c r="A255" s="4">
+        <v>49</v>
       </c>
       <c r="C255" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256">
-        <v>255</v>
+      <c r="A256" s="5">
+        <v>50</v>
       </c>
       <c r="B256" t="s">
         <v>18</v>
@@ -13535,8 +13570,8 @@
       </c>
     </row>
     <row r="257" spans="1:18">
-      <c r="A257">
-        <v>256</v>
+      <c r="A257" s="5">
+        <v>51</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
@@ -13591,8 +13626,8 @@
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258">
-        <v>257</v>
+      <c r="A258" s="4">
+        <v>52</v>
       </c>
       <c r="B258" t="s">
         <v>13</v>
@@ -13602,8 +13637,8 @@
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259">
-        <v>258</v>
+      <c r="A259" s="5">
+        <v>53</v>
       </c>
       <c r="B259" t="s">
         <v>11</v>
@@ -13613,8 +13648,8 @@
       </c>
     </row>
     <row r="260" spans="1:18">
-      <c r="A260">
-        <v>259</v>
+      <c r="A260" s="5">
+        <v>54</v>
       </c>
       <c r="B260" t="s">
         <v>13</v>
@@ -13669,8 +13704,8 @@
       </c>
     </row>
     <row r="261" spans="1:18">
-      <c r="A261">
-        <v>260</v>
+      <c r="A261" s="4">
+        <v>55</v>
       </c>
       <c r="B261" t="s">
         <v>18</v>
@@ -13725,8 +13760,8 @@
       </c>
     </row>
     <row r="262" spans="1:18">
-      <c r="A262">
-        <v>261</v>
+      <c r="A262" s="5">
+        <v>56</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -13781,8 +13816,8 @@
       </c>
     </row>
     <row r="263" spans="1:18">
-      <c r="A263">
-        <v>262</v>
+      <c r="A263" s="5">
+        <v>57</v>
       </c>
       <c r="B263" t="s">
         <v>18</v>
@@ -13837,8 +13872,8 @@
       </c>
     </row>
     <row r="264" spans="1:18">
-      <c r="A264">
-        <v>263</v>
+      <c r="A264" s="4">
+        <v>58</v>
       </c>
       <c r="B264" t="s">
         <v>13</v>
@@ -13893,8 +13928,8 @@
       </c>
     </row>
     <row r="265" spans="1:18">
-      <c r="A265">
-        <v>264</v>
+      <c r="A265" s="5">
+        <v>59</v>
       </c>
       <c r="B265" t="s">
         <v>11</v>
@@ -13949,8 +13984,8 @@
       </c>
     </row>
     <row r="266" spans="1:18">
-      <c r="A266">
-        <v>265</v>
+      <c r="A266" s="5">
+        <v>60</v>
       </c>
       <c r="B266" t="s">
         <v>13</v>
@@ -14005,8 +14040,8 @@
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267">
-        <v>266</v>
+      <c r="A267" s="4">
+        <v>61</v>
       </c>
       <c r="B267" t="s">
         <v>11</v>
@@ -14016,8 +14051,8 @@
       </c>
     </row>
     <row r="268" spans="1:18">
-      <c r="A268">
-        <v>267</v>
+      <c r="A268" s="5">
+        <v>62</v>
       </c>
       <c r="B268" t="s">
         <v>18</v>
@@ -14072,8 +14107,8 @@
       </c>
     </row>
     <row r="269" spans="1:18">
-      <c r="A269">
-        <v>268</v>
+      <c r="A269" s="5">
+        <v>63</v>
       </c>
       <c r="B269" t="s">
         <v>11</v>
@@ -14128,8 +14163,8 @@
       </c>
     </row>
     <row r="270" spans="1:18">
-      <c r="A270">
-        <v>269</v>
+      <c r="A270" s="4">
+        <v>64</v>
       </c>
       <c r="B270" t="s">
         <v>18</v>
@@ -14184,8 +14219,8 @@
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271">
-        <v>270</v>
+      <c r="A271" s="5">
+        <v>65</v>
       </c>
       <c r="B271" t="s">
         <v>13</v>
@@ -14195,8 +14230,8 @@
       </c>
     </row>
     <row r="272" spans="1:18">
-      <c r="A272">
-        <v>271</v>
+      <c r="A272" s="5">
+        <v>66</v>
       </c>
       <c r="B272" t="s">
         <v>11</v>
@@ -14251,8 +14286,8 @@
       </c>
     </row>
     <row r="273" spans="1:18">
-      <c r="A273">
-        <v>272</v>
+      <c r="A273" s="4">
+        <v>67</v>
       </c>
       <c r="B273" t="s">
         <v>18</v>
@@ -14307,8 +14342,8 @@
       </c>
     </row>
     <row r="274" spans="1:18">
-      <c r="A274">
-        <v>273</v>
+      <c r="A274" s="5">
+        <v>68</v>
       </c>
       <c r="B274" t="s">
         <v>13</v>
@@ -14363,8 +14398,8 @@
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275">
-        <v>274</v>
+      <c r="A275" s="5">
+        <v>69</v>
       </c>
       <c r="B275" t="s">
         <v>18</v>
@@ -14374,8 +14409,8 @@
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276">
-        <v>275</v>
+      <c r="A276" s="4">
+        <v>70</v>
       </c>
       <c r="B276" t="s">
         <v>11</v>
@@ -14385,8 +14420,8 @@
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277">
-        <v>276</v>
+      <c r="A277" s="5">
+        <v>71</v>
       </c>
       <c r="B277" t="s">
         <v>13</v>
@@ -14396,8 +14431,8 @@
       </c>
     </row>
     <row r="278" spans="1:18">
-      <c r="A278">
-        <v>277</v>
+      <c r="A278" s="5">
+        <v>72</v>
       </c>
       <c r="B278" t="s">
         <v>11</v>
@@ -14452,8 +14487,8 @@
       </c>
     </row>
     <row r="279" spans="1:18">
-      <c r="A279">
-        <v>278</v>
+      <c r="A279" s="4">
+        <v>73</v>
       </c>
       <c r="B279" t="s">
         <v>18</v>
@@ -14508,8 +14543,8 @@
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280">
-        <v>279</v>
+      <c r="A280" s="5">
+        <v>74</v>
       </c>
       <c r="B280" t="s">
         <v>11</v>
@@ -14519,8 +14554,8 @@
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281">
-        <v>280</v>
+      <c r="A281" s="5">
+        <v>75</v>
       </c>
       <c r="B281" t="s">
         <v>9</v>
@@ -14530,8 +14565,8 @@
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282">
-        <v>281</v>
+      <c r="A282" s="4">
+        <v>76</v>
       </c>
       <c r="B282" t="s">
         <v>13</v>
@@ -14541,8 +14576,8 @@
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283">
-        <v>282</v>
+      <c r="A283" s="5">
+        <v>77</v>
       </c>
       <c r="B283" t="s">
         <v>9</v>
@@ -14552,8 +14587,8 @@
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284">
-        <v>283</v>
+      <c r="A284" s="5">
+        <v>78</v>
       </c>
       <c r="B284" t="s">
         <v>11</v>
@@ -14563,8 +14598,8 @@
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285">
-        <v>284</v>
+      <c r="A285" s="4">
+        <v>79</v>
       </c>
       <c r="B285" t="s">
         <v>9</v>
@@ -14574,8 +14609,8 @@
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286">
-        <v>285</v>
+      <c r="A286" s="5">
+        <v>80</v>
       </c>
       <c r="B286" t="s">
         <v>11</v>
@@ -14585,8 +14620,8 @@
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287">
-        <v>286</v>
+      <c r="A287" s="5">
+        <v>81</v>
       </c>
       <c r="B287" t="s">
         <v>13</v>
@@ -14596,8 +14631,8 @@
       </c>
     </row>
     <row r="288" spans="1:18">
-      <c r="A288">
-        <v>287</v>
+      <c r="A288" s="4">
+        <v>82</v>
       </c>
       <c r="B288" t="s">
         <v>18</v>
@@ -14652,8 +14687,8 @@
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289">
-        <v>288</v>
+      <c r="A289" s="5">
+        <v>83</v>
       </c>
       <c r="B289" t="s">
         <v>11</v>
@@ -14663,8 +14698,8 @@
       </c>
     </row>
     <row r="290" spans="1:18">
-      <c r="A290">
-        <v>289</v>
+      <c r="A290" s="5">
+        <v>84</v>
       </c>
       <c r="B290" t="s">
         <v>18</v>
@@ -14719,8 +14754,8 @@
       </c>
     </row>
     <row r="291" spans="1:18">
-      <c r="A291">
-        <v>290</v>
+      <c r="A291" s="4">
+        <v>85</v>
       </c>
       <c r="B291" t="s">
         <v>11</v>
@@ -14775,8 +14810,8 @@
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292">
-        <v>291</v>
+      <c r="A292" s="5">
+        <v>86</v>
       </c>
       <c r="B292" t="s">
         <v>18</v>
@@ -14786,8 +14821,8 @@
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293">
-        <v>292</v>
+      <c r="A293" s="5">
+        <v>87</v>
       </c>
       <c r="B293" t="s">
         <v>11</v>
@@ -14797,8 +14832,8 @@
       </c>
     </row>
     <row r="294" spans="1:18">
-      <c r="A294">
-        <v>293</v>
+      <c r="A294" s="4">
+        <v>88</v>
       </c>
       <c r="B294" t="s">
         <v>18</v>
@@ -14853,8 +14888,8 @@
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295">
-        <v>294</v>
+      <c r="A295" s="5">
+        <v>89</v>
       </c>
       <c r="B295" t="s">
         <v>11</v>
@@ -14864,8 +14899,8 @@
       </c>
     </row>
     <row r="296" spans="1:18">
-      <c r="A296">
-        <v>295</v>
+      <c r="A296" s="5">
+        <v>90</v>
       </c>
       <c r="B296" t="s">
         <v>18</v>
@@ -14920,8 +14955,8 @@
       </c>
     </row>
     <row r="297" spans="1:18">
-      <c r="A297">
-        <v>296</v>
+      <c r="A297" s="4">
+        <v>91</v>
       </c>
       <c r="B297" t="s">
         <v>13</v>
@@ -14976,8 +15011,8 @@
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298">
-        <v>297</v>
+      <c r="A298" s="5">
+        <v>92</v>
       </c>
       <c r="B298" t="s">
         <v>11</v>
@@ -14987,8 +15022,8 @@
       </c>
     </row>
     <row r="299" spans="1:18">
-      <c r="A299">
-        <v>298</v>
+      <c r="A299" s="5">
+        <v>93</v>
       </c>
       <c r="B299" t="s">
         <v>13</v>
@@ -15043,8 +15078,8 @@
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300">
-        <v>299</v>
+      <c r="A300" s="4">
+        <v>94</v>
       </c>
       <c r="B300" t="s">
         <v>11</v>
@@ -15054,8 +15089,8 @@
       </c>
     </row>
     <row r="301" spans="1:18">
-      <c r="A301">
-        <v>300</v>
+      <c r="A301" s="5">
+        <v>95</v>
       </c>
       <c r="B301" t="s">
         <v>13</v>
@@ -15110,8 +15145,8 @@
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302">
-        <v>301</v>
+      <c r="A302" s="5">
+        <v>96</v>
       </c>
       <c r="B302" t="s">
         <v>11</v>
@@ -15121,8 +15156,8 @@
       </c>
     </row>
     <row r="303" spans="1:18">
-      <c r="A303">
-        <v>302</v>
+      <c r="A303" s="4">
+        <v>97</v>
       </c>
       <c r="B303" t="s">
         <v>13</v>
@@ -15177,8 +15212,8 @@
       </c>
     </row>
     <row r="304" spans="1:18">
-      <c r="A304">
-        <v>303</v>
+      <c r="A304" s="5">
+        <v>98</v>
       </c>
       <c r="B304" t="s">
         <v>11</v>
@@ -15233,8 +15268,8 @@
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305">
-        <v>304</v>
+      <c r="A305" s="5">
+        <v>99</v>
       </c>
       <c r="B305" t="s">
         <v>13</v>
@@ -15244,8 +15279,8 @@
       </c>
     </row>
     <row r="306" spans="1:18">
-      <c r="A306">
-        <v>305</v>
+      <c r="A306" s="4">
+        <v>100</v>
       </c>
       <c r="B306" t="s">
         <v>11</v>
@@ -15300,8 +15335,8 @@
       </c>
     </row>
     <row r="307" spans="1:18">
-      <c r="A307">
-        <v>306</v>
+      <c r="A307" s="5">
+        <v>101</v>
       </c>
       <c r="B307" t="s">
         <v>18</v>
@@ -15356,8 +15391,8 @@
       </c>
     </row>
     <row r="308" spans="1:18">
-      <c r="A308">
-        <v>307</v>
+      <c r="A308" s="5">
+        <v>102</v>
       </c>
       <c r="B308" t="s">
         <v>13</v>
@@ -15412,8 +15447,8 @@
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309">
-        <v>308</v>
+      <c r="A309" s="4">
+        <v>103</v>
       </c>
       <c r="B309" t="s">
         <v>11</v>
@@ -15423,8 +15458,8 @@
       </c>
     </row>
     <row r="310" spans="1:18">
-      <c r="A310">
-        <v>309</v>
+      <c r="A310" s="5">
+        <v>104</v>
       </c>
       <c r="B310" t="s">
         <v>18</v>
@@ -15479,8 +15514,8 @@
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311">
-        <v>310</v>
+      <c r="A311" s="5">
+        <v>105</v>
       </c>
       <c r="B311" t="s">
         <v>13</v>
@@ -15490,8 +15525,8 @@
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312">
-        <v>311</v>
+      <c r="A312" s="4">
+        <v>106</v>
       </c>
       <c r="B312" t="s">
         <v>11</v>
@@ -15501,8 +15536,8 @@
       </c>
     </row>
     <row r="313" spans="1:18">
-      <c r="A313">
-        <v>312</v>
+      <c r="A313" s="5">
+        <v>107</v>
       </c>
       <c r="B313" t="s">
         <v>13</v>
@@ -15557,8 +15592,8 @@
       </c>
     </row>
     <row r="314" spans="1:18">
-      <c r="A314">
-        <v>313</v>
+      <c r="A314" s="5">
+        <v>108</v>
       </c>
       <c r="B314" t="s">
         <v>18</v>
@@ -15613,8 +15648,8 @@
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315">
-        <v>314</v>
+      <c r="A315" s="4">
+        <v>109</v>
       </c>
       <c r="B315" t="s">
         <v>13</v>
@@ -15624,8 +15659,8 @@
       </c>
     </row>
     <row r="316" spans="1:18">
-      <c r="A316">
-        <v>315</v>
+      <c r="A316" s="5">
+        <v>110</v>
       </c>
       <c r="B316" t="s">
         <v>11</v>
@@ -15680,8 +15715,8 @@
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317">
-        <v>316</v>
+      <c r="A317" s="5">
+        <v>111</v>
       </c>
       <c r="B317" t="s">
         <v>13</v>
@@ -15691,8 +15726,8 @@
       </c>
     </row>
     <row r="318" spans="1:18">
-      <c r="A318">
-        <v>317</v>
+      <c r="A318" s="4">
+        <v>112</v>
       </c>
       <c r="B318" t="s">
         <v>18</v>
@@ -15747,8 +15782,8 @@
       </c>
     </row>
     <row r="319" spans="1:18">
-      <c r="A319">
-        <v>318</v>
+      <c r="A319" s="5">
+        <v>113</v>
       </c>
       <c r="B319" t="s">
         <v>11</v>
